--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3469F6-C26B-4DF2-850A-CC394DE06D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA490EB4-C9A8-45C1-9A83-298156664E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="2" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="giai thuat khong xoa" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>Job</t>
   </si>
@@ -225,9 +226,6 @@
     <t>Vòng lặp</t>
   </si>
   <si>
-    <t>Kiểm tra job -&gt; điều phối</t>
-  </si>
-  <si>
     <t>Rerouting</t>
   </si>
   <si>
@@ -331,6 +329,57 @@
   </si>
   <si>
     <t>continue</t>
+  </si>
+  <si>
+    <t>https://repository.up.ac.za/bitstream/handle/2263/62870/vanLoggerenberg_Application_2016.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/https://doi.org/10.1007/s00170-013-4775-6</t>
+  </si>
+  <si>
+    <t>http://143.248.80.207/wordpress/wp-content/uploads/2021/04/Predictive-vehicle-dispatching-method-for-overhead-hoist-transport-systems-in-semiconductor-fabs.pdf</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/10.1109/ICIEEM.2011.6035471</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/https://doi.org/10.1016/j.compind.2010.10.010</t>
+  </si>
+  <si>
+    <t>dispatching</t>
+  </si>
+  <si>
+    <t>lấy số job cần làm từ trên xuống bằng số xe</t>
+  </si>
+  <si>
+    <t>đổi target cho xe</t>
+  </si>
+  <si>
+    <t>nếu số job &lt; số xe</t>
+  </si>
+  <si>
+    <t>nếu số job=&gt;số xe</t>
+  </si>
+  <si>
+    <t>tính hungarian</t>
+  </si>
+  <si>
+    <t>list xe available là xe idle và retrived not loading</t>
+  </si>
+  <si>
+    <t>list số job cần làm</t>
+  </si>
+  <si>
+    <t>lấy số job bằng số xe</t>
+  </si>
+  <si>
+    <t>Tính ma trận giá trị (danh sách xe ok, danh sách job ok)</t>
+  </si>
+  <si>
+    <t>C_ij = w1. (Tmax-TimeWait) + w2.d_ij</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/53549712/s00170-008-1863-020170616-9028-qxdnnr-with-cover-page-v2.pdf?Expires=1648966799&amp;Signature=HuGSUysf1HDmFddv2o21pT~ObvpZP08gWrqcKGNl-s4W7-fgFW9FJ0SYSvQrrFHiPQkJS2bQg2CAOh7xGu9whzaC7gK6oBz-ZLsuEwL-Tii-goMlBA64dCI9fWMQt7kEitdHaOI9V1Eljd1f07RGXONPSlhDtmSTlFiFJr7GXkcs6QxHxtDWQ5g6~pGo1SCrYaWXx1WW3MaQVaKKXoER8G1yYh7Q0H0Ra4iegdxdxkpnJWaGE1YXanSuUUGJk-LGGvXe5-EJCcjOfxvpGJXMW89WHomu-H25Y07vXM41yRHJzQxO7rRv-CAUSGXs3xIoxI2h8JvX3DX3nBLsOQ4dGg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
   </si>
 </sst>
 </file>
@@ -3059,252 +3108,341 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="R8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="F9" s="13"/>
+      <c r="S9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="R10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F26" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F37" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F50" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EADB31-C53E-4402-B319-BCAE9C3E828F}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA490EB4-C9A8-45C1-9A83-298156664E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4ED1B6-44FE-4FFF-B01D-B7D16330149C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="giai thuat khong xoa" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>Job</t>
   </si>
@@ -352,18 +353,12 @@
     <t>lấy số job cần làm từ trên xuống bằng số xe</t>
   </si>
   <si>
-    <t>đổi target cho xe</t>
-  </si>
-  <si>
     <t>nếu số job &lt; số xe</t>
   </si>
   <si>
     <t>nếu số job=&gt;số xe</t>
   </si>
   <si>
-    <t>tính hungarian</t>
-  </si>
-  <si>
     <t>list xe available là xe idle và retrived not loading</t>
   </si>
   <si>
@@ -380,6 +375,33 @@
   </si>
   <si>
     <t>https://d1wqtxts1xzle7.cloudfront.net/53549712/s00170-008-1863-020170616-9028-qxdnnr-with-cover-page-v2.pdf?Expires=1648966799&amp;Signature=HuGSUysf1HDmFddv2o21pT~ObvpZP08gWrqcKGNl-s4W7-fgFW9FJ0SYSvQrrFHiPQkJS2bQg2CAOh7xGu9whzaC7gK6oBz-ZLsuEwL-Tii-goMlBA64dCI9fWMQt7kEitdHaOI9V1Eljd1f07RGXONPSlhDtmSTlFiFJr7GXkcs6QxHxtDWQ5g6~pGo1SCrYaWXx1WW3MaQVaKKXoER8G1yYh7Q0H0Ra4iegdxdxkpnJWaGE1YXanSuUUGJk-LGGvXe5-EJCcjOfxvpGJXMW89WHomu-H25Y07vXM41yRHJzQxO7rRv-CAUSGXs3xIoxI2h8JvX3DX3nBLsOQ4dGg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>https://cjme.springeropen.com/track/pdf/10.1007/s10033-017-0100-x.pdf</t>
+  </si>
+  <si>
+    <t>Tính ma trận C</t>
+  </si>
+  <si>
+    <t>TÍnh Hungarian</t>
+  </si>
+  <si>
+    <t>Swap job</t>
+  </si>
+  <si>
+    <t>quét các xe đang ở trạng thái retrival</t>
+  </si>
+  <si>
+    <t>tìm điểm target</t>
+  </si>
+  <si>
+    <t>nếu trên đường đi tới target có xe bị chặn</t>
+  </si>
+  <si>
+    <t>kiểm tra xem có đủ điều kiện block không</t>
+  </si>
+  <si>
+    <t>nếu có thì swap</t>
   </si>
 </sst>
 </file>
@@ -650,6 +672,438 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>62193</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5046A3-210D-413A-8000-2B290822D24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3092824" y="5658971"/>
+          <a:ext cx="18148487" cy="9258300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8913109-9291-4E2B-87A5-B81378CAE1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA83B1D7-5825-4386-A78F-67A0FC552829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6705600" y="762000"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BA84DB-FF7A-4DFE-992E-BDDED72243F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6705600" y="5334000"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B15F5B-5BB6-4124-8959-4713638F2750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="657225" y="5514975"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>135773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80234E08-6B16-409B-BC10-4025F5EEDFE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="639537" y="9769928"/>
+          <a:ext cx="11443606" cy="5796345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618C8E6C-4EAC-482F-A7FC-D93337E39E7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12801600" y="9715500"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2987,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24048E-08A5-4AF0-BC73-AE0E74B73576}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3565,7 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,12 +3585,12 @@
         <v>93</v>
       </c>
       <c r="X4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3144,10 +3598,10 @@
         <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -3162,7 +3616,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="R8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3182,7 +3636,7 @@
         <v>86</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3192,7 +3646,7 @@
         <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3200,7 +3654,7 @@
         <v>80</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3208,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -3220,68 +3674,88 @@
       <c r="F16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F26" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>67</v>
       </c>
@@ -3408,10 +3882,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2DF954-2CDE-418B-AA67-A41A0D104340}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EADB31-C53E-4402-B319-BCAE9C3E828F}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3442,7 +3933,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4ED1B6-44FE-4FFF-B01D-B7D16330149C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969FABCF-8B33-48C5-B635-D82310438099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="giai thuat khong xoa" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="table" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
   <si>
     <t>Job</t>
   </si>
@@ -389,19 +391,115 @@
     <t>Swap job</t>
   </si>
   <si>
-    <t>quét các xe đang ở trạng thái retrival</t>
-  </si>
-  <si>
-    <t>tìm điểm target</t>
-  </si>
-  <si>
-    <t>nếu trên đường đi tới target có xe bị chặn</t>
-  </si>
-  <si>
-    <t>kiểm tra xem có đủ điều kiện block không</t>
-  </si>
-  <si>
-    <t>nếu có thì swap</t>
+    <t>Quét tất cả các điểm loop</t>
+  </si>
+  <si>
+    <t>điểm nào có xe</t>
+  </si>
+  <si>
+    <t>đưa vào danh sách xe (vì là di chuyển theo 1 chiều nên đã sort r)</t>
+  </si>
+  <si>
+    <t>loop danh sách xe</t>
+  </si>
+  <si>
+    <t>x = xe đang quét</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nếu x là retrival</t>
+  </si>
+  <si>
+    <t>nếu: khoảng cách 2 xe &lt; thời gian pickup8 vận tốc</t>
+  </si>
+  <si>
+    <t>nếu x tới target = y tới target + khoảng cách 2 target</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>y = xe retrieval phía trước</t>
+  </si>
+  <si>
+    <t>thời gian tạo</t>
+  </si>
+  <si>
+    <t>trạng thái (đợi, đã hoàn thành)</t>
+  </si>
+  <si>
+    <t>trạng thái 2 (đang đợi, đang load)</t>
+  </si>
+  <si>
+    <t>Trạm</t>
+  </si>
+  <si>
+    <t>mã RFID</t>
+  </si>
+  <si>
+    <t>tọa độ x</t>
+  </si>
+  <si>
+    <t>tọa độ y</t>
+  </si>
+  <si>
+    <t>Để vẽ layout</t>
+  </si>
+  <si>
+    <t>xe đang nằm trên ray</t>
+  </si>
+  <si>
+    <t>Xe</t>
+  </si>
+  <si>
+    <t>trạng thái (rảnh. Đang đi lấy hàng, đang giao hành)</t>
+  </si>
+  <si>
+    <t>vị trí hiện tại</t>
+  </si>
+  <si>
+    <t>vị trí muốn tới</t>
+  </si>
+  <si>
+    <t>job đang làm</t>
+  </si>
+  <si>
+    <t>có đang bị block không?</t>
+  </si>
+  <si>
+    <t>quãng đường đã di chuyển</t>
+  </si>
+  <si>
+    <t>thời lượng pin</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>trạm A</t>
+  </si>
+  <si>
+    <t>trạm B</t>
+  </si>
+  <si>
+    <t>trạm C</t>
+  </si>
+  <si>
+    <t>trạm D</t>
+  </si>
+  <si>
+    <t>trạm E</t>
+  </si>
+  <si>
+    <t>1A2B3C4D</t>
+  </si>
+  <si>
+    <t>192…1</t>
+  </si>
+  <si>
+    <t>192…2</t>
+  </si>
+  <si>
+    <t>192…3</t>
   </si>
 </sst>
 </file>
@@ -544,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,6 +1207,366 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8515A437-CE31-4220-8D22-5B16B4730297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="612321" y="16192500"/>
+          <a:ext cx="5346247" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D81608-0BAA-4649-9117-E657986FE167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="0"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA692275-3E87-4C60-AA49-3388AB889333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="0"/>
+          <a:ext cx="5324475" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604557</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3412C7-BF92-4273-97EA-E5CDF16C6591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6208058" y="0"/>
+          <a:ext cx="5288617" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9EC62F-25E5-4826-B9CF-422508940852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="862853" y="2229970"/>
+          <a:ext cx="12102353" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>559735</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E592B80-735A-44BD-A53D-12A1B77F4576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17055353" y="0"/>
+          <a:ext cx="5288617" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1410,7 +1869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6409D435-A318-4A0B-A561-D034CBD3FAF8}">
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AN23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3564,8 +4025,8 @@
   </sheetPr>
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,7 +4139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -3686,12 +4147,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -3699,118 +4160,149 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="U21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="V22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F26" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F37" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>64</v>
       </c>
@@ -3885,8 +4377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2DF954-2CDE-418B-AA67-A41A0D104340}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V52" sqref="V52"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,11 +4389,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D3150-F811-4569-A730-FBB077BA854C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EADB31-C53E-4402-B319-BCAE9C3E828F}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,4 +4451,540 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C3BED-308D-436A-9771-891385A466AE}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="14">
+        <v>44665</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3" s="14">
+        <v>44665</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="14">
+        <v>44665</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5" s="14">
+        <v>44665</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969FABCF-8B33-48C5-B635-D82310438099}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF01015-7675-47E4-BCB1-B3585809B786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="giai thuat khong xoa" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="table" sheetId="8" r:id="rId7"/>
+    <sheet name="layout2" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="giai thuat khong xoa" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId8"/>
+    <sheet name="table" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -550,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -638,11 +640,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,6 +750,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,7 +1972,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AN23"/>
+      <selection activeCell="A2" sqref="A2:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,10 +4001,2108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938B60E-BB70-4142-976C-7C8C2CC2DB9D}">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
+        <v>1</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0</v>
+      </c>
+      <c r="N20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24">
+        <v>0</v>
+      </c>
+      <c r="S20" s="24">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="26">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <v>0</v>
+      </c>
+      <c r="T21" s="26">
+        <v>0</v>
+      </c>
+      <c r="U21" s="26">
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <v>1</v>
+      </c>
+      <c r="W21" s="26">
+        <v>0</v>
+      </c>
+      <c r="X21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26">
+        <v>0</v>
+      </c>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="26">
+        <v>0</v>
+      </c>
+      <c r="V22" s="26">
+        <v>0</v>
+      </c>
+      <c r="W22" s="26">
+        <v>1</v>
+      </c>
+      <c r="X22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="26">
+        <v>0</v>
+      </c>
+      <c r="S23" s="26">
+        <v>0</v>
+      </c>
+      <c r="T23" s="26">
+        <v>0</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <v>0</v>
+      </c>
+      <c r="W23" s="26">
+        <v>0</v>
+      </c>
+      <c r="X23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0</v>
+      </c>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0</v>
+      </c>
+      <c r="V24" s="26">
+        <v>0</v>
+      </c>
+      <c r="W24" s="26">
+        <v>0</v>
+      </c>
+      <c r="X24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0</v>
+      </c>
+      <c r="X25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
+      <c r="L26" s="24">
+        <v>0</v>
+      </c>
+      <c r="M26" s="24">
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="P26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>0</v>
+      </c>
+      <c r="R26" s="24">
+        <v>0</v>
+      </c>
+      <c r="S26" s="24">
+        <v>0</v>
+      </c>
+      <c r="T26" s="24">
+        <v>0</v>
+      </c>
+      <c r="U26" s="24">
+        <v>0</v>
+      </c>
+      <c r="V26" s="24">
+        <v>0</v>
+      </c>
+      <c r="W26" s="24">
+        <v>0</v>
+      </c>
+      <c r="X26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E24048E-08A5-4AF0-BC73-AE0E74B73576}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -4018,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BEB8D5-B827-4AD6-BF06-1ACE1D7756A8}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4373,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2DF954-2CDE-418B-AA67-A41A0D104340}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4388,11 +6588,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67D3150-F811-4569-A730-FBB077BA854C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -4403,12 +6603,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EADB31-C53E-4402-B319-BCAE9C3E828F}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,11 +6653,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AEC05B-D819-4C20-9D63-563DD5DA9911}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C3BED-308D-436A-9771-891385A466AE}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00. Giao duc\01.Cao hoc\99. Luanvan\05.Matlab\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF01015-7675-47E4-BCB1-B3585809B786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCCCCE-D783-4F2B-81A2-66E42FB6D87C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="3" xr2:uid="{25DECE4D-14CB-4F70-B561-1B58AE7016C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId8"/>
     <sheet name="table" sheetId="8" r:id="rId9"/>
+    <sheet name="job" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="161">
   <si>
     <t>Job</t>
   </si>
@@ -502,13 +503,64 @@
   </si>
   <si>
     <t>192…3</t>
+  </si>
+  <si>
+    <t>A = xe bị lock</t>
+  </si>
+  <si>
+    <t>B= xe block</t>
+  </si>
+  <si>
+    <t>C = target của xe bị block</t>
+  </si>
+  <si>
+    <t>Khoảng cách từ B tới next1, next2 là ngắn hơn</t>
+  </si>
+  <si>
+    <t>pathToLoadStation</t>
+  </si>
+  <si>
+    <t>tìm đường di chuyển của xe  block từ B tới C</t>
+  </si>
+  <si>
+    <t>next_1 = C + 1</t>
+  </si>
+  <si>
+    <t>D = Tìm xem giao điểm gần nhất có thể thoát</t>
+  </si>
+  <si>
+    <t>Nếu B == C</t>
+  </si>
+  <si>
+    <t>target = C +1</t>
+  </si>
+  <si>
+    <t>Nếu không</t>
+  </si>
+  <si>
+    <t>Điểm thoát</t>
+  </si>
+  <si>
+    <t>E = điểm thoát dựa theo D mà không nằm trong đường di chuyển</t>
+  </si>
+  <si>
+    <t>next_2 = E</t>
+  </si>
+  <si>
+    <t>Lặp điểm thoát, xem có điểm nào thoát không</t>
+  </si>
+  <si>
+    <t>Điểm thoát nào gần nhất so với B</t>
+  </si>
+  <si>
+    <t>0;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +591,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,6 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4000,11 +4059,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FC6501-C809-41E1-A042-EC25732DA27A}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>39</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938B60E-BB70-4142-976C-7C8C2CC2DB9D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -6223,13 +6808,16 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="N52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6255,9 +6843,17 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="R6" t="s">
         <v>98</v>
       </c>
@@ -6266,78 +6862,164 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="R8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="S9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>86</v>
       </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="R10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="S11" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>80</v>
       </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="R13" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="R14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>82</v>
       </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="Q16" t="s">
         <v>106</v>
       </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -6441,7 +7123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>59</v>
       </c>
@@ -6449,7 +7131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>64</v>
       </c>
@@ -6457,114 +7139,329 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="F37" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="R39" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R40" s="27"/>
+      <c r="S40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="U46" t="s">
+        <v>153</v>
+      </c>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="U48" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="U49" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F50" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
+      <c r="U53" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U55" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="U57" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="U58" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U59" s="27"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
+      <c r="U60" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="T63" t="s">
+        <v>155</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63">
+        <v>12</v>
+      </c>
+      <c r="W63">
+        <v>20</v>
+      </c>
+      <c r="X63">
+        <v>33</v>
+      </c>
+      <c r="Y63">
+        <v>41</v>
+      </c>
+      <c r="Z63">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+      <c r="U65">
+        <v>5</v>
+      </c>
+      <c r="V65">
+        <v>13</v>
+      </c>
+      <c r="W65">
+        <v>21</v>
+      </c>
+      <c r="X65">
+        <v>34</v>
+      </c>
+      <c r="Y65">
+        <v>42</v>
+      </c>
+      <c r="Z65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>79</v>
+      </c>
+      <c r="U66">
+        <v>59</v>
+      </c>
+      <c r="V66">
+        <v>63</v>
+      </c>
+      <c r="W66">
+        <v>67</v>
+      </c>
+      <c r="X66">
+        <v>69</v>
+      </c>
+      <c r="Y66">
+        <v>65</v>
+      </c>
+      <c r="Z66">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
